--- a/Data/Predictions/Graph Neural Network/Transductive/reformatted_exclude_previous_rating_model_3_predictions.xlsx
+++ b/Data/Predictions/Graph Neural Network/Transductive/reformatted_exclude_previous_rating_model_3_predictions.xlsx
@@ -693,7 +693,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -6655,7 +6655,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -6699,7 +6699,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -6853,7 +6853,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -7205,7 +7205,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8679,7 +8679,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -8943,7 +8943,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -9185,7 +9185,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
